--- a/schedule_results.xlsx
+++ b/schedule_results.xlsx
@@ -463,32 +463,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>06:30</t>
+          <t>06:40</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>MAPEH</t>
+          <t>Edukasyong Pantahanan at Pangkabuhayan</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Mrs. Dulnuan</t>
+          <t>Mrs. Masigla</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>06:30</t>
+          <t>06:40</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>07:00</t>
+          <t>07:10</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -508,32 +508,32 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>07:00</t>
+          <t>07:10</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>07:50</t>
+          <t>07:40</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Mathematics</t>
+          <t>MAPEH</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Mr. Tabuada</t>
+          <t>Mrs. Dulnuan</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>07:50</t>
+          <t>07:40</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -542,16 +542,16 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Araling Panlipunan</t>
+          <t>Science</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Mrs. Fernandez</t>
+          <t>Mrs. Bello</t>
         </is>
       </c>
     </row>
@@ -596,12 +596,12 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Filipino</t>
+          <t>Mathematics</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Mr. Paracha</t>
+          <t>Mr. Tabuada</t>
         </is>
       </c>
     </row>
@@ -613,32 +613,32 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>10:10</t>
+          <t>10:20</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Edukasyong Pantahanan at Pangkabuhayan</t>
+          <t>English</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Mrs. Masigla</t>
+          <t>Mrs. Nadal</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>10:10</t>
+          <t>10:20</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>11:10</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -646,19 +646,19 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>English</t>
+          <t>Filipino</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Mrs. Nadal</t>
+          <t>Mr. Paracha</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>11:10</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -667,16 +667,16 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Science</t>
+          <t>Araling Panlipunan</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Mrs. Bello</t>
+          <t>Mrs. Fernandez</t>
         </is>
       </c>
     </row>
@@ -725,52 +725,52 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>06:50</t>
+          <t>06:40</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>English</t>
+          <t>Edukasyong Pantahanan at Pangkabuhayan</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Mrs. Nadal</t>
+          <t>Mrs. Masigla</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>06:50</t>
+          <t>06:40</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>07:20</t>
+          <t>07:30</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Edukasyon sa Pagpapakatao</t>
+          <t>English</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Mrs. Abital</t>
+          <t>Mrs. Nadal</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>07:20</t>
+          <t>07:30</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -779,16 +779,16 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Science</t>
+          <t>Araling Panlipunan</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Mrs. Bello</t>
+          <t>Mrs. Fernandez</t>
         </is>
       </c>
     </row>
@@ -800,27 +800,27 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>08:20</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Filipino</t>
+          <t>BREAK</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Mr. Paracha</t>
+          <t>Mrs. Julie Ann R. Abingona</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>08:20</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -829,16 +829,16 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>BREAK</t>
+          <t>Filipino</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Mrs. Julie Ann R. Abingona</t>
+          <t>Mr. Paracha</t>
         </is>
       </c>
     </row>
@@ -850,77 +850,77 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>09:40</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Mathematics</t>
+          <t>MAPEH</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Mr. Tabuada</t>
+          <t>Mrs. Dulnuan</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>09:40</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>10:40</t>
+          <t>10:10</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Araling Panlipunan</t>
+          <t>Edukasyon sa Pagpapakatao</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Mrs. Fernandez</t>
+          <t>Mrs. Abital</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>10:40</t>
+          <t>10:10</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>11:10</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>MAPEH</t>
+          <t>Mathematics</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Mrs. Dulnuan</t>
+          <t>Mr. Tabuada</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>11:10</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -929,16 +929,16 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Edukasyong Pantahanan at Pangkabuhayan</t>
+          <t>Science</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Mrs. Masigla</t>
+          <t>Mrs. Bello</t>
         </is>
       </c>
     </row>
@@ -995,12 +995,12 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Science</t>
+          <t>Filipino</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Mrs. Bello</t>
+          <t>Mr. Paracha</t>
         </is>
       </c>
     </row>
@@ -1012,27 +1012,27 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>07:40</t>
+          <t>07:30</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Filipino</t>
+          <t>Araling Panlipunan</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Mr. Paracha</t>
+          <t>Mrs. Fernandez</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>07:40</t>
+          <t>07:30</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1041,16 +1041,16 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>MAPEH</t>
+          <t>Edukasyong Pantahanan at Pangkabuhayan</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Mrs. Dulnuan</t>
+          <t>Mrs. Masigla</t>
         </is>
       </c>
     </row>
@@ -1070,12 +1070,12 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Mathematics</t>
+          <t>English</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Mr. Tabuada</t>
+          <t>Mrs. Nadal</t>
         </is>
       </c>
     </row>
@@ -1112,27 +1112,27 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>09:50</t>
+          <t>09:40</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Edukasyong Pantahanan at Pangkabuhayan</t>
+          <t>MAPEH</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Mrs. Masigla</t>
+          <t>Mrs. Dulnuan</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>09:50</t>
+          <t>09:40</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1141,16 +1141,16 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Araling Panlipunan</t>
+          <t>Mathematics</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Mrs. Fernandez</t>
+          <t>Mr. Tabuada</t>
         </is>
       </c>
     </row>
@@ -1195,12 +1195,12 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>English</t>
+          <t>Science</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Mrs. Nadal</t>
+          <t>Mrs. Bello</t>
         </is>
       </c>
     </row>
@@ -1249,82 +1249,82 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>06:10</t>
+          <t>06:40</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>BREAK</t>
+          <t>Edukasyong Pantahanan at Pangkabuhayan</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Mrs. Arlene A. Montes</t>
+          <t>Mrs. Masigla</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>06:10</t>
+          <t>06:40</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>06:40</t>
+          <t>07:30</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>MAPEH</t>
+          <t>Science</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Mrs. Dulnuan</t>
+          <t>Mrs. Bello</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>06:40</t>
+          <t>07:30</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>07:20</t>
+          <t>08:20</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Araling Panlipunan</t>
+          <t>Mathematics</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Mrs. Fernandez</t>
+          <t>Mr. Tabuada</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>07:20</t>
+          <t>08:20</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>08:10</t>
+          <t>09:10</t>
         </is>
       </c>
       <c r="C42" t="n">
@@ -1332,94 +1332,94 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Science</t>
+          <t>Filipino</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Mrs. Bello</t>
+          <t>Mr. Paracha</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>08:10</t>
+          <t>09:10</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>09:20</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>English</t>
+          <t>BREAK</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Mrs. Nadal</t>
+          <t>Mrs. Arlene A. Montes</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>09:20</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>09:50</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Filipino</t>
+          <t>Araling Panlipunan</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Mr. Paracha</t>
+          <t>Mrs. Fernandez</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>09:50</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>10:40</t>
+          <t>10:30</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Mathematics</t>
+          <t>Edukasyon sa Pagpapakatao</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Mr. Tabuada</t>
+          <t>Mrs. Abital</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>10:40</t>
+          <t>10:30</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1428,16 +1428,16 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Edukasyong Pantahanan at Pangkabuhayan</t>
+          <t>English</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Mrs. Masigla</t>
+          <t>Mrs. Nadal</t>
         </is>
       </c>
     </row>
@@ -1457,12 +1457,12 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Edukasyon sa Pagpapakatao</t>
+          <t>MAPEH</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Mrs. Abital</t>
+          <t>Mrs. Dulnuan</t>
         </is>
       </c>
     </row>
@@ -1511,32 +1511,32 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>06:50</t>
+          <t>06:30</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>English</t>
+          <t>Edukasyon sa Pagpapakatao</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Mrs. Nadal</t>
+          <t>Mrs. Abital</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>06:50</t>
+          <t>06:30</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>07:40</t>
+          <t>07:20</t>
         </is>
       </c>
       <c r="C52" t="n">
@@ -1544,19 +1544,19 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Science</t>
+          <t>Mathematics</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Mrs. Bello</t>
+          <t>Mr. Tabuada</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>07:40</t>
+          <t>07:20</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1565,16 +1565,16 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Edukasyon sa Pagpapakatao</t>
+          <t>Filipino</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Mrs. Abital</t>
+          <t>Mr. Paracha</t>
         </is>
       </c>
     </row>
@@ -1586,32 +1586,32 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>08:40</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>MAPEH</t>
+          <t>Science</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Mrs. Dulnuan</t>
+          <t>Mrs. Bello</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>08:40</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>08:50</t>
+          <t>09:10</t>
         </is>
       </c>
       <c r="C55" t="n">
@@ -1631,37 +1631,37 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>08:50</t>
+          <t>09:10</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>09:40</t>
+          <t>09:50</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Mathematics</t>
+          <t>Araling Panlipunan</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Mr. Tabuada</t>
+          <t>Mrs. Fernandez</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>09:40</t>
+          <t>09:50</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>10:20</t>
+          <t>10:30</t>
         </is>
       </c>
       <c r="C57" t="n">
@@ -1681,32 +1681,32 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>10:20</t>
+          <t>10:30</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>11:10</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Filipino</t>
+          <t>MAPEH</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Mr. Paracha</t>
+          <t>Mrs. Dulnuan</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>11:10</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -1715,16 +1715,16 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Araling Panlipunan</t>
+          <t>English</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Mrs. Fernandez</t>
+          <t>Mrs. Nadal</t>
         </is>
       </c>
     </row>

--- a/schedule_results.xlsx
+++ b/schedule_results.xlsx
@@ -463,27 +463,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>06:40</t>
+          <t>06:30</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Edukasyong Pantahanan at Pangkabuhayan</t>
+          <t>MAPEH</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Mrs. Masigla</t>
+          <t>Mrs. Dulnuan</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>06:40</t>
+          <t>06:30</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -492,16 +492,16 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Edukasyon sa Pagpapakatao</t>
+          <t>Edukasyong Pantahanan at Pangkabuhayan</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Mrs. Abital</t>
+          <t>Mrs. Masigla</t>
         </is>
       </c>
     </row>
@@ -513,32 +513,32 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>07:40</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>MAPEH</t>
+          <t>Science</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Mrs. Dulnuan</t>
+          <t>Mrs. Bello</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>07:40</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>08:30</t>
+          <t>08:50</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -546,24 +546,24 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Science</t>
+          <t>Mathematics</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Mrs. Bello</t>
+          <t>Mr. Tabuada</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>08:30</t>
+          <t>08:50</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>08:40</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -583,12 +583,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>08:40</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>09:50</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -596,19 +596,19 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Mathematics</t>
+          <t>English</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Mr. Tabuada</t>
+          <t>Mrs. Nadal</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>09:50</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -617,16 +617,16 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>English</t>
+          <t>Edukasyon sa Pagpapakatao</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Mrs. Nadal</t>
+          <t>Mrs. Abital</t>
         </is>
       </c>
     </row>
@@ -750,32 +750,32 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>07:30</t>
+          <t>07:10</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>English</t>
+          <t>Edukasyon sa Pagpapakatao</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Mrs. Nadal</t>
+          <t>Mrs. Abital</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>07:30</t>
+          <t>07:10</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>08:10</t>
+          <t>07:50</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -795,57 +795,57 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>08:10</t>
+          <t>07:50</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>08:20</t>
+          <t>08:40</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>BREAK</t>
+          <t>Science</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Mrs. Julie Ann R. Abingona</t>
+          <t>Mrs. Bello</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>08:20</t>
+          <t>08:40</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>09:10</t>
+          <t>08:50</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Filipino</t>
+          <t>BREAK</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Mr. Paracha</t>
+          <t>Mrs. Julie Ann R. Abingona</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>09:10</t>
+          <t>08:50</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -854,16 +854,16 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>MAPEH</t>
+          <t>Filipino</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Mrs. Dulnuan</t>
+          <t>Mr. Paracha</t>
         </is>
       </c>
     </row>
@@ -875,27 +875,27 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>10:10</t>
+          <t>10:30</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Edukasyon sa Pagpapakatao</t>
+          <t>English</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Mrs. Abital</t>
+          <t>Mrs. Nadal</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>10:10</t>
+          <t>10:30</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -904,16 +904,16 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Mathematics</t>
+          <t>MAPEH</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Mr. Tabuada</t>
+          <t>Mrs. Dulnuan</t>
         </is>
       </c>
     </row>
@@ -933,12 +933,12 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Science</t>
+          <t>Mathematics</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Mrs. Bello</t>
+          <t>Mr. Tabuada</t>
         </is>
       </c>
     </row>
@@ -987,82 +987,82 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>06:50</t>
+          <t>06:30</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Filipino</t>
+          <t>MAPEH</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Mr. Paracha</t>
+          <t>Mrs. Dulnuan</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>06:50</t>
+          <t>06:30</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>07:30</t>
+          <t>06:40</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Araling Panlipunan</t>
+          <t>BREAK</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Mrs. Fernandez</t>
+          <t>Mrs. Eglicelda A. Molo</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
+          <t>06:40</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
           <t>07:30</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>08:10</t>
-        </is>
-      </c>
       <c r="C29" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Edukasyong Pantahanan at Pangkabuhayan</t>
+          <t>Filipino</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Mrs. Masigla</t>
+          <t>Mr. Paracha</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>08:10</t>
+          <t>07:30</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>08:20</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -1070,94 +1070,94 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>English</t>
+          <t>Science</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Mrs. Nadal</t>
+          <t>Mrs. Bello</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
+          <t>08:20</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
           <t>09:00</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>09:10</t>
-        </is>
-      </c>
       <c r="C31" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>BREAK</t>
+          <t>Edukasyong Pantahanan at Pangkabuhayan</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Mrs. Eglicelda A. Molo</t>
+          <t>Mrs. Masigla</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>09:10</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>09:40</t>
+          <t>09:50</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>MAPEH</t>
+          <t>English</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Mrs. Dulnuan</t>
+          <t>Mrs. Nadal</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>09:40</t>
+          <t>09:50</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>10:30</t>
+          <t>10:20</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Mathematics</t>
+          <t>Edukasyon sa Pagpapakatao</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Mr. Tabuada</t>
+          <t>Mrs. Abital</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>10:30</t>
+          <t>10:20</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1166,16 +1166,16 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Edukasyon sa Pagpapakatao</t>
+          <t>Araling Panlipunan</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Mrs. Abital</t>
+          <t>Mrs. Fernandez</t>
         </is>
       </c>
     </row>
@@ -1195,12 +1195,12 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Science</t>
+          <t>Mathematics</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Mrs. Bello</t>
+          <t>Mr. Tabuada</t>
         </is>
       </c>
     </row>
@@ -1257,12 +1257,12 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Edukasyong Pantahanan at Pangkabuhayan</t>
+          <t>Araling Panlipunan</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Mrs. Masigla</t>
+          <t>Mrs. Fernandez</t>
         </is>
       </c>
     </row>
@@ -1274,32 +1274,32 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>07:30</t>
+          <t>07:10</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Science</t>
+          <t>MAPEH</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Mrs. Bello</t>
+          <t>Mrs. Dulnuan</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>07:30</t>
+          <t>07:10</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>08:20</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="C41" t="n">
@@ -1307,24 +1307,24 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Mathematics</t>
+          <t>English</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Mr. Tabuada</t>
+          <t>Mrs. Nadal</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>08:20</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>09:10</t>
+          <t>08:50</t>
         </is>
       </c>
       <c r="C42" t="n">
@@ -1332,24 +1332,24 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Filipino</t>
+          <t>Mathematics</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Mr. Paracha</t>
+          <t>Mr. Tabuada</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>09:10</t>
+          <t>08:50</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>09:20</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="C43" t="n">
@@ -1369,82 +1369,82 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>09:20</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Araling Panlipunan</t>
+          <t>Edukasyon sa Pagpapakatao</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Mrs. Fernandez</t>
+          <t>Mrs. Abital</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>10:30</t>
+          <t>10:20</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Edukasyon sa Pagpapakatao</t>
+          <t>Science</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Mrs. Abital</t>
+          <t>Mrs. Bello</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>10:30</t>
+          <t>10:20</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>11:20</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>English</t>
+          <t>Edukasyong Pantahanan at Pangkabuhayan</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Mrs. Nadal</t>
+          <t>Mrs. Masigla</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>11:20</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1453,16 +1453,16 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>MAPEH</t>
+          <t>Filipino</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Mrs. Dulnuan</t>
+          <t>Mr. Paracha</t>
         </is>
       </c>
     </row>
@@ -1511,57 +1511,57 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>06:30</t>
+          <t>06:50</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Edukasyon sa Pagpapakatao</t>
+          <t>English</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Mrs. Abital</t>
+          <t>Mrs. Nadal</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>06:30</t>
+          <t>06:50</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>07:20</t>
+          <t>07:30</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Mathematics</t>
+          <t>Araling Panlipunan</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Mr. Tabuada</t>
+          <t>Mrs. Fernandez</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>07:20</t>
+          <t>07:30</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>08:10</t>
+          <t>08:20</t>
         </is>
       </c>
       <c r="C53" t="n">
@@ -1581,7 +1581,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>08:10</t>
+          <t>08:20</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1590,16 +1590,16 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Science</t>
+          <t>Edukasyong Pantahanan at Pangkabuhayan</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Mrs. Bello</t>
+          <t>Mrs. Masigla</t>
         </is>
       </c>
     </row>
@@ -1636,27 +1636,27 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>09:50</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Araling Panlipunan</t>
+          <t>Science</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Mrs. Fernandez</t>
+          <t>Mrs. Bello</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>09:50</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -1665,16 +1665,16 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Edukasyong Pantahanan at Pangkabuhayan</t>
+          <t>Edukasyon sa Pagpapakatao</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Mrs. Masigla</t>
+          <t>Mrs. Abital</t>
         </is>
       </c>
     </row>
@@ -1686,27 +1686,27 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>11:20</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>MAPEH</t>
+          <t>Mathematics</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Mrs. Dulnuan</t>
+          <t>Mr. Tabuada</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>11:20</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -1715,16 +1715,16 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>English</t>
+          <t>MAPEH</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Mrs. Nadal</t>
+          <t>Mrs. Dulnuan</t>
         </is>
       </c>
     </row>
